--- a/examen/EKO 15-П-1.xlsx
+++ b/examen/EKO 15-П-1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -114,10 +114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -129,6 +129,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +428,7 @@
   <dimension ref="B1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,42 +456,42 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="T1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="T2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -499,54 +502,54 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>13</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2">
         <v>8</v>
       </c>
-      <c r="N3" s="3">
-        <v>11</v>
-      </c>
-      <c r="O3" s="3">
-        <v>10</v>
-      </c>
-      <c r="P3" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>12</v>
-      </c>
-      <c r="R3" s="3">
-        <v>11</v>
-      </c>
-      <c r="S3" s="4">
+      <c r="N3" s="2">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>12</v>
+      </c>
+      <c r="R3" s="2">
+        <v>11</v>
+      </c>
+      <c r="S3" s="3">
         <f>SUM(F3:R3)/13</f>
         <v>9.1538461538461533</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="4">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="3">
         <f>S3*0.6+(T3*0.4+U3*0.6)*0.4</f>
         <v>5.4923076923076914</v>
       </c>
@@ -558,52 +561,52 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>14</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
         <v>9</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <f t="shared" ref="S4:S10" si="0">SUM(F4:R4)/13</f>
         <v>2.0769230769230771</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="3">
         <f t="shared" ref="V4:V10" si="1">S4*0.6+(T4*0.4+U4*0.6)*0.4</f>
         <v>1.2461538461538462</v>
       </c>
@@ -615,56 +618,56 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>14</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3">
-        <v>11</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>11</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2">
         <v>9</v>
       </c>
-      <c r="N5" s="3">
-        <v>10</v>
-      </c>
-      <c r="O5" s="3">
-        <v>12</v>
-      </c>
-      <c r="P5" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>12</v>
-      </c>
-      <c r="R5" s="3">
-        <v>12</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2">
+        <v>12</v>
+      </c>
+      <c r="P5" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>12</v>
+      </c>
+      <c r="R5" s="2">
+        <v>12</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="0"/>
         <v>9.2307692307692299</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="3">
         <f t="shared" si="1"/>
         <v>5.5384615384615374</v>
       </c>
@@ -676,58 +679,58 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
         <v>9</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>6</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>8</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>7</v>
       </c>
-      <c r="P6" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>10</v>
-      </c>
-      <c r="R6" s="3">
-        <v>10</v>
-      </c>
-      <c r="S6" s="4">
+      <c r="P6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>10</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10</v>
+      </c>
+      <c r="S6" s="3">
         <f t="shared" si="0"/>
         <v>8.2307692307692299</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="3">
         <f t="shared" si="1"/>
         <v>4.9384615384615378</v>
       </c>
@@ -739,50 +742,50 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>16</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>11</v>
-      </c>
-      <c r="R7" s="3">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>11</v>
+      </c>
+      <c r="R7" s="2">
         <v>8</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="4">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
@@ -794,58 +797,58 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3">
-        <v>12</v>
-      </c>
-      <c r="K8" s="3">
-        <v>11</v>
-      </c>
-      <c r="L8" s="3">
-        <v>12</v>
-      </c>
-      <c r="M8" s="3">
-        <v>12</v>
-      </c>
-      <c r="N8" s="3">
-        <v>11</v>
-      </c>
-      <c r="O8" s="3">
-        <v>12</v>
-      </c>
-      <c r="P8" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>12</v>
-      </c>
-      <c r="R8" s="3">
-        <v>12</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12</v>
+      </c>
+      <c r="N8" s="2">
+        <v>11</v>
+      </c>
+      <c r="O8" s="2">
+        <v>12</v>
+      </c>
+      <c r="P8" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>12</v>
+      </c>
+      <c r="R8" s="2">
+        <v>12</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="0"/>
         <v>11.692307692307692</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="4">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="3">
         <f t="shared" si="1"/>
         <v>7.0153846153846144</v>
       </c>
@@ -857,56 +860,56 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3">
-        <v>12</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3">
-        <v>12</v>
-      </c>
-      <c r="L9" s="3">
-        <v>12</v>
-      </c>
-      <c r="M9" s="3">
-        <v>12</v>
-      </c>
-      <c r="N9" s="3">
-        <v>12</v>
-      </c>
-      <c r="O9" s="3">
-        <v>12</v>
-      </c>
-      <c r="P9" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>12</v>
-      </c>
-      <c r="R9" s="3">
-        <v>11</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2">
+        <v>12</v>
+      </c>
+      <c r="M9" s="2">
+        <v>12</v>
+      </c>
+      <c r="N9" s="2">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2">
+        <v>12</v>
+      </c>
+      <c r="P9" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>12</v>
+      </c>
+      <c r="R9" s="2">
+        <v>11</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="0"/>
         <v>10.923076923076923</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="4">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="3">
         <f t="shared" si="1"/>
         <v>6.5538461538461537</v>
       </c>
@@ -918,50 +921,50 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3">
-        <v>11</v>
-      </c>
-      <c r="L10" s="3">
-        <v>11</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2">
         <v>9</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>9</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>10</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="P10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>10</v>
+      </c>
+      <c r="R10" s="2">
         <v>9</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <f t="shared" si="0"/>
         <v>6.7692307692307692</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="4">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="3">
         <f t="shared" si="1"/>
         <v>4.0615384615384613</v>
       </c>
